--- a/Línea Base/LB02/Desarrollo/Edutec/Gestión/Sprint 2/Sprint Backlog - S2.xlsx
+++ b/Línea Base/LB02/Desarrollo/Edutec/Gestión/Sprint 2/Sprint Backlog - S2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\Universidad\Edutec\Desarrollo\Edutec\Gestión\Sprint 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40725419-4530-4CEE-953B-FF17A4584340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAE6599-C951-4C38-90A4-78F706E0FFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="120">
   <si>
     <t>Universidad Nacional Mayor de San Marcos</t>
   </si>
@@ -395,6 +395,9 @@
   <si>
     <t>Favoritos</t>
   </si>
+  <si>
+    <t>Iniciado</t>
+  </si>
 </sst>
 </file>
 
@@ -463,7 +466,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -515,6 +518,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-4.9989318521683403E-2"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
@@ -791,7 +800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -838,9 +847,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1028,9 +1034,6 @@
     <xf numFmtId="165" fontId="1" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1062,6 +1065,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1279,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30:I32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1613,17 +1631,17 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="95"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="93"/>
       <c r="J11" s="3"/>
       <c r="K11" s="12"/>
       <c r="L11" s="3"/>
@@ -1643,31 +1661,31 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="24">
         <v>44537</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="24">
         <v>44538</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="25">
         <v>4</v>
       </c>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="26" t="s">
         <v>63</v>
       </c>
       <c r="J12" s="3"/>
@@ -1689,31 +1707,31 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="24">
         <v>44538</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="24">
         <v>44539</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="25">
         <v>4</v>
       </c>
-      <c r="I13" s="27" t="s">
+      <c r="I13" s="26" t="s">
         <v>63</v>
       </c>
       <c r="J13" s="3"/>
@@ -1735,31 +1753,31 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="24">
         <v>44539</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="24">
         <v>44543</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="25">
         <v>8</v>
       </c>
-      <c r="I14" s="27" t="s">
+      <c r="I14" s="26" t="s">
         <v>63</v>
       </c>
       <c r="J14" s="3"/>
@@ -1781,31 +1799,31 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="24">
         <v>44543</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="24">
         <v>44544</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="25">
         <v>4</v>
       </c>
-      <c r="I15" s="27" t="s">
+      <c r="I15" s="26" t="s">
         <v>63</v>
       </c>
       <c r="J15" s="3"/>
@@ -1827,31 +1845,31 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="32">
         <v>44544</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="32">
         <v>44545</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="29">
         <v>4</v>
       </c>
-      <c r="I16" s="35" t="s">
+      <c r="I16" s="34" t="s">
         <v>63</v>
       </c>
       <c r="J16" s="14"/>
@@ -1873,31 +1891,31 @@
       <c r="Z16" s="14"/>
     </row>
     <row r="17" spans="1:26" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="32">
         <v>44545</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="32">
         <v>44546</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H17" s="33">
         <v>4</v>
       </c>
-      <c r="I17" s="35" t="s">
+      <c r="I17" s="34" t="s">
         <v>63</v>
       </c>
       <c r="J17" s="3"/>
@@ -1919,31 +1937,31 @@
       <c r="Z17" s="3"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="D18" s="72" t="s">
+      <c r="D18" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="73" t="s">
+      <c r="E18" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="74">
+      <c r="F18" s="73">
         <v>44546</v>
       </c>
-      <c r="G18" s="74">
+      <c r="G18" s="73">
         <v>44547</v>
       </c>
-      <c r="H18" s="70">
+      <c r="H18" s="69">
         <v>4</v>
       </c>
-      <c r="I18" s="72" t="s">
+      <c r="I18" s="71" t="s">
         <v>63</v>
       </c>
       <c r="J18" s="3"/>
@@ -1965,31 +1983,31 @@
       <c r="Z18" s="3"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="72" t="s">
+      <c r="D19" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="73" t="s">
+      <c r="E19" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="74">
+      <c r="F19" s="73">
         <v>44547</v>
       </c>
-      <c r="G19" s="74">
+      <c r="G19" s="73">
         <v>44551</v>
       </c>
-      <c r="H19" s="71">
+      <c r="H19" s="70">
         <v>4</v>
       </c>
-      <c r="I19" s="72" t="s">
+      <c r="I19" s="71" t="s">
         <v>63</v>
       </c>
       <c r="J19" s="3"/>
@@ -2011,31 +2029,31 @@
       <c r="Z19" s="3"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="77" t="s">
+      <c r="C20" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="78" t="s">
+      <c r="D20" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="78" t="s">
+      <c r="E20" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="79">
+      <c r="F20" s="78">
         <v>44551</v>
       </c>
-      <c r="G20" s="79">
+      <c r="G20" s="78">
         <v>44552</v>
       </c>
-      <c r="H20" s="76">
+      <c r="H20" s="75">
         <v>4</v>
       </c>
-      <c r="I20" s="72" t="s">
+      <c r="I20" s="71" t="s">
         <v>63</v>
       </c>
       <c r="J20" s="3"/>
@@ -2057,31 +2075,31 @@
       <c r="Z20" s="3"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A21" s="69" t="s">
+      <c r="A21" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="75" t="s">
+      <c r="B21" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="72" t="s">
+      <c r="D21" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="73" t="s">
+      <c r="E21" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="74">
+      <c r="F21" s="73">
         <v>44552</v>
       </c>
-      <c r="G21" s="74">
+      <c r="G21" s="73">
         <v>44553</v>
       </c>
-      <c r="H21" s="71">
+      <c r="H21" s="70">
         <v>4</v>
       </c>
-      <c r="I21" s="72" t="s">
+      <c r="I21" s="71" t="s">
         <v>63</v>
       </c>
       <c r="J21" s="3"/>
@@ -2103,31 +2121,31 @@
       <c r="Z21" s="3"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="75" t="s">
+      <c r="C22" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="73" t="s">
+      <c r="D22" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="73" t="s">
+      <c r="E22" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="74">
+      <c r="F22" s="73">
         <v>44553</v>
       </c>
-      <c r="G22" s="74">
+      <c r="G22" s="73">
         <v>44554</v>
       </c>
-      <c r="H22" s="70">
+      <c r="H22" s="69">
         <v>4</v>
       </c>
-      <c r="I22" s="72" t="s">
+      <c r="I22" s="71" t="s">
         <v>63</v>
       </c>
       <c r="J22" s="3"/>
@@ -2149,31 +2167,31 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23" spans="1:26" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="81" t="s">
+      <c r="C23" s="80" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="82" t="s">
+      <c r="D23" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="82" t="s">
+      <c r="E23" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="83">
+      <c r="F23" s="82">
         <v>44546</v>
       </c>
-      <c r="G23" s="83">
+      <c r="G23" s="82">
         <v>44547</v>
       </c>
-      <c r="H23" s="81">
+      <c r="H23" s="80">
         <v>2</v>
       </c>
-      <c r="I23" s="82" t="s">
+      <c r="I23" s="81" t="s">
         <v>63</v>
       </c>
       <c r="J23" s="3"/>
@@ -2195,31 +2213,31 @@
       <c r="Z23" s="3"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="81" t="s">
+      <c r="B24" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="81" t="s">
+      <c r="C24" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="D24" s="82" t="s">
+      <c r="D24" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="82" t="s">
+      <c r="E24" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="83">
+      <c r="F24" s="82">
         <v>44547</v>
       </c>
-      <c r="G24" s="83">
+      <c r="G24" s="82">
         <v>44551</v>
       </c>
-      <c r="H24" s="81">
+      <c r="H24" s="80">
         <v>4</v>
       </c>
-      <c r="I24" s="82" t="s">
+      <c r="I24" s="81" t="s">
         <v>63</v>
       </c>
       <c r="J24" s="3"/>
@@ -2241,31 +2259,31 @@
       <c r="Z24" s="3"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="80" t="s">
+      <c r="A25" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="B25" s="81" t="s">
+      <c r="B25" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="81" t="s">
+      <c r="C25" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="82" t="s">
+      <c r="D25" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="82" t="s">
+      <c r="E25" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="83">
+      <c r="F25" s="82">
         <v>44551</v>
       </c>
-      <c r="G25" s="83">
+      <c r="G25" s="82">
         <v>44552</v>
       </c>
-      <c r="H25" s="81">
+      <c r="H25" s="80">
         <v>2</v>
       </c>
-      <c r="I25" s="82" t="s">
+      <c r="I25" s="81" t="s">
         <v>63</v>
       </c>
       <c r="J25" s="3"/>
@@ -2287,32 +2305,32 @@
       <c r="Z25" s="3"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A26" s="80" t="s">
+      <c r="A26" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="81" t="s">
+      <c r="B26" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="81" t="s">
+      <c r="C26" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="D26" s="82" t="s">
+      <c r="D26" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="82" t="s">
+      <c r="E26" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="83">
+      <c r="F26" s="103">
         <v>44551</v>
       </c>
-      <c r="G26" s="83">
+      <c r="G26" s="103">
         <v>44552</v>
       </c>
-      <c r="H26" s="81">
+      <c r="H26" s="101">
         <v>2</v>
       </c>
-      <c r="I26" s="82" t="s">
-        <v>63</v>
+      <c r="I26" s="102" t="s">
+        <v>119</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -2333,32 +2351,32 @@
       <c r="Z26" s="3"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A27" s="80" t="s">
+      <c r="A27" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="B27" s="84" t="s">
+      <c r="B27" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="81" t="s">
+      <c r="C27" s="101" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="82" t="s">
+      <c r="D27" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="82" t="s">
+      <c r="E27" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="83">
+      <c r="F27" s="103">
         <v>44552</v>
       </c>
-      <c r="G27" s="83">
+      <c r="G27" s="103">
         <v>44553</v>
       </c>
-      <c r="H27" s="84">
+      <c r="H27" s="104">
         <v>4</v>
       </c>
-      <c r="I27" s="82" t="s">
-        <v>63</v>
+      <c r="I27" s="102" t="s">
+        <v>119</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -2517,32 +2535,32 @@
       <c r="Z30" s="3"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="100" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="103">
         <v>44551</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="103">
         <v>44552</v>
       </c>
-      <c r="H31" s="16">
+      <c r="H31" s="101">
         <v>2</v>
       </c>
-      <c r="I31" s="18" t="s">
-        <v>63</v>
+      <c r="I31" s="102" t="s">
+        <v>119</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -2563,32 +2581,32 @@
       <c r="Z31" s="3"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="100" t="s">
         <v>102</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="101" t="s">
         <v>109</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="103">
         <v>44552</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="103">
         <v>44553</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H32" s="104">
         <v>2</v>
       </c>
-      <c r="I32" s="18" t="s">
-        <v>63</v>
+      <c r="I32" s="102" t="s">
+        <v>119</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -2723,12 +2741,12 @@
       <c r="Z36" s="3"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A37" s="85" t="s">
+      <c r="A37" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="86"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="87"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="85"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -2753,14 +2771,14 @@
       <c r="Z37" s="3"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A38" s="96" t="s">
+      <c r="A38" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="87"/>
-      <c r="C38" s="64" t="s">
+      <c r="B38" s="85"/>
+      <c r="C38" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="64" t="s">
+      <c r="D38" s="63" t="s">
         <v>40</v>
       </c>
       <c r="E38" s="3"/>
@@ -2787,14 +2805,14 @@
       <c r="Z38" s="3"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A39" s="91" t="s">
+      <c r="A39" s="89" t="s">
         <v>115</v>
       </c>
-      <c r="B39" s="92"/>
-      <c r="C39" s="68" t="s">
+      <c r="B39" s="90"/>
+      <c r="C39" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="40">
+      <c r="D39" s="39">
         <v>20</v>
       </c>
       <c r="E39" s="3"/>
@@ -2821,14 +2839,14 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A40" s="91" t="s">
+      <c r="A40" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="92"/>
-      <c r="C40" s="68" t="s">
+      <c r="B40" s="90"/>
+      <c r="C40" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="40">
+      <c r="D40" s="39">
         <v>8</v>
       </c>
       <c r="E40" s="3"/>
@@ -2855,14 +2873,14 @@
       <c r="Z40" s="3"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A41" s="91" t="s">
+      <c r="A41" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="B41" s="92"/>
-      <c r="C41" s="68" t="s">
+      <c r="B41" s="90"/>
+      <c r="C41" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="D41" s="40">
+      <c r="D41" s="39">
         <v>20</v>
       </c>
       <c r="E41" s="3"/>
@@ -2889,14 +2907,14 @@
       <c r="Z41" s="3"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A42" s="91" t="s">
+      <c r="A42" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="B42" s="92"/>
-      <c r="C42" s="68" t="s">
+      <c r="B42" s="90"/>
+      <c r="C42" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="D42" s="40">
+      <c r="D42" s="39">
         <v>14</v>
       </c>
       <c r="E42" s="3"/>
@@ -2923,14 +2941,14 @@
       <c r="Z42" s="3"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A43" s="91" t="s">
+      <c r="A43" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="B43" s="92"/>
-      <c r="C43" s="68" t="s">
+      <c r="B43" s="90"/>
+      <c r="C43" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="40">
+      <c r="D43" s="39">
         <v>14</v>
       </c>
       <c r="E43" s="3"/>
@@ -3013,16 +3031,16 @@
       <c r="Z45" s="3"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A46" s="65" t="s">
+      <c r="A46" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="65" t="s">
+      <c r="B46" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="88" t="s">
+      <c r="C46" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="88"/>
+      <c r="D46" s="86"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -3047,16 +3065,16 @@
       <c r="Z46" s="3"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A47" s="66">
+      <c r="A47" s="65">
         <v>44536</v>
       </c>
-      <c r="B47" s="67">
+      <c r="B47" s="66">
         <v>1</v>
       </c>
-      <c r="C47" s="89" t="s">
+      <c r="C47" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="D47" s="90"/>
+      <c r="D47" s="88"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -29718,62 +29736,62 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="40" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="40" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="40" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="40" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="40" t="s">
         <v>54</v>
       </c>
     </row>
@@ -30786,7 +30804,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
@@ -30885,7 +30903,7 @@
         <v>59</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="41" t="s">
         <v>60</v>
       </c>
       <c r="D8" s="2"/>
@@ -30907,103 +30925,103 @@
       <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:26" ht="30">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="44" t="s">
+      <c r="I10" s="43" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="98" t="s">
+      <c r="A11" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="95"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="93"/>
       <c r="K11" s="12"/>
     </row>
     <row r="12" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="48">
         <v>44368</v>
       </c>
-      <c r="G12" s="49">
+      <c r="G12" s="48">
         <v>44370</v>
       </c>
-      <c r="H12" s="50">
+      <c r="H12" s="49">
         <v>6</v>
       </c>
-      <c r="I12" s="51" t="s">
+      <c r="I12" s="50" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="55">
+      <c r="F13" s="54">
         <v>44375</v>
       </c>
-      <c r="G13" s="55">
+      <c r="G13" s="54">
         <v>44377</v>
       </c>
-      <c r="H13" s="53">
+      <c r="H13" s="52">
         <v>4</v>
       </c>
-      <c r="I13" s="51" t="s">
+      <c r="I13" s="50" t="s">
         <v>63</v>
       </c>
       <c r="J13" s="13"/>
@@ -31025,334 +31043,334 @@
       <c r="Z13" s="13"/>
     </row>
     <row r="14" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="49">
+      <c r="F14" s="48">
         <v>44377</v>
       </c>
-      <c r="G14" s="49">
+      <c r="G14" s="48">
         <v>44380</v>
       </c>
-      <c r="H14" s="46">
+      <c r="H14" s="45">
         <v>10</v>
       </c>
-      <c r="I14" s="51" t="s">
+      <c r="I14" s="50" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="51" t="s">
+      <c r="E15" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="57">
+      <c r="F15" s="56">
         <v>44370</v>
       </c>
-      <c r="G15" s="57">
+      <c r="G15" s="56">
         <v>44372</v>
       </c>
-      <c r="H15" s="47">
+      <c r="H15" s="46">
         <v>9</v>
       </c>
-      <c r="I15" s="51" t="s">
+      <c r="I15" s="50" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="48" t="s">
+      <c r="E16" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="48">
         <v>44372</v>
       </c>
-      <c r="G16" s="49">
+      <c r="G16" s="48">
         <v>44375</v>
       </c>
-      <c r="H16" s="46">
+      <c r="H16" s="45">
         <v>10</v>
       </c>
-      <c r="I16" s="51" t="s">
+      <c r="I16" s="50" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="59" t="s">
+      <c r="E17" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="48">
         <v>44383</v>
       </c>
-      <c r="G17" s="49">
+      <c r="G17" s="48">
         <v>44386</v>
       </c>
-      <c r="H17" s="50">
+      <c r="H17" s="49">
         <v>6</v>
       </c>
-      <c r="I17" s="51" t="s">
+      <c r="I17" s="50" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A18" s="98" t="s">
+      <c r="A18" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="94"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="95"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="93"/>
     </row>
     <row r="19" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="59" t="s">
+      <c r="E19" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="60">
+      <c r="F19" s="59">
         <v>44397</v>
       </c>
-      <c r="G19" s="60">
+      <c r="G19" s="59">
         <v>44399</v>
       </c>
-      <c r="H19" s="50">
+      <c r="H19" s="49">
         <v>10</v>
       </c>
-      <c r="I19" s="51" t="s">
+      <c r="I19" s="50" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="61" t="s">
+      <c r="E20" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="57">
+      <c r="F20" s="56">
         <v>44407</v>
       </c>
-      <c r="G20" s="57">
+      <c r="G20" s="56">
         <v>44410</v>
       </c>
-      <c r="H20" s="46">
+      <c r="H20" s="45">
         <v>6</v>
       </c>
-      <c r="I20" s="51" t="s">
+      <c r="I20" s="50" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="48" t="s">
+      <c r="D21" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="61" t="s">
+      <c r="E21" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="F21" s="57">
+      <c r="F21" s="56">
         <v>44410</v>
       </c>
-      <c r="G21" s="57">
+      <c r="G21" s="56">
         <v>44413</v>
       </c>
-      <c r="H21" s="46">
+      <c r="H21" s="45">
         <v>10</v>
       </c>
-      <c r="I21" s="51" t="s">
+      <c r="I21" s="50" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="48" t="s">
+      <c r="D22" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="48" t="s">
+      <c r="E22" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="57">
+      <c r="F22" s="56">
         <v>44415</v>
       </c>
-      <c r="G22" s="57">
+      <c r="G22" s="56">
         <v>44418</v>
       </c>
-      <c r="H22" s="46">
+      <c r="H22" s="45">
         <v>6</v>
       </c>
-      <c r="I22" s="51" t="s">
+      <c r="I22" s="50" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="48" t="s">
+      <c r="D23" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="48" t="s">
+      <c r="E23" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="F23" s="57">
+      <c r="F23" s="56">
         <v>44418</v>
       </c>
-      <c r="G23" s="57">
+      <c r="G23" s="56">
         <v>44422</v>
       </c>
-      <c r="H23" s="46">
+      <c r="H23" s="45">
         <v>10</v>
       </c>
-      <c r="I23" s="51" t="s">
+      <c r="I23" s="50" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="48" t="s">
+      <c r="D24" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="F24" s="57">
+      <c r="F24" s="56">
         <v>44424</v>
       </c>
-      <c r="G24" s="57">
+      <c r="G24" s="56">
         <v>44427</v>
       </c>
-      <c r="H24" s="46">
+      <c r="H24" s="45">
         <v>6</v>
       </c>
-      <c r="I24" s="51" t="s">
+      <c r="I24" s="50" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="48" t="s">
+      <c r="D25" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="48" t="s">
+      <c r="E25" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="F25" s="57">
+      <c r="F25" s="56">
         <v>44427</v>
       </c>
-      <c r="G25" s="57">
+      <c r="G25" s="56">
         <v>44430</v>
       </c>
-      <c r="H25" s="46">
+      <c r="H25" s="45">
         <v>10</v>
       </c>
-      <c r="I25" s="51" t="s">
+      <c r="I25" s="50" t="s">
         <v>63</v>
       </c>
     </row>
@@ -31371,93 +31389,93 @@
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1"/>
     <row r="28" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A28" s="99" t="s">
+      <c r="A28" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="100"/>
-      <c r="C28" s="92"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="90"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A29" s="101" t="s">
+      <c r="A29" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="38" t="s">
+      <c r="B29" s="90"/>
+      <c r="C29" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="38" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A30" s="97" t="s">
+      <c r="A30" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="92"/>
-      <c r="C30" s="62" t="s">
+      <c r="B30" s="90"/>
+      <c r="C30" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="63">
+      <c r="D30" s="62">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A31" s="97" t="s">
+      <c r="A31" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="92"/>
-      <c r="C31" s="62" t="s">
+      <c r="B31" s="90"/>
+      <c r="C31" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="39">
+      <c r="D31" s="38">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A32" s="97" t="s">
+      <c r="A32" s="95" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="92"/>
-      <c r="C32" s="62" t="s">
+      <c r="B32" s="90"/>
+      <c r="C32" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="39">
+      <c r="D32" s="38">
         <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A33" s="97" t="s">
+      <c r="A33" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="92"/>
-      <c r="C33" s="62" t="s">
+      <c r="B33" s="90"/>
+      <c r="C33" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="63">
+      <c r="D33" s="62">
         <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A34" s="97" t="s">
+      <c r="A34" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="92"/>
-      <c r="C34" s="62" t="s">
+      <c r="B34" s="90"/>
+      <c r="C34" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="63">
+      <c r="D34" s="62">
         <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A35" s="97" t="s">
+      <c r="A35" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="92"/>
-      <c r="C35" s="62" t="s">
+      <c r="B35" s="90"/>
+      <c r="C35" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="63">
+      <c r="D35" s="62">
         <v>20</v>
       </c>
     </row>
